--- a/R/Data/Analiza.xlsx
+++ b/R/Data/Analiza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkisi\OneDrive - University of Gdansk (for Students)\GFZG\SEM I\Przetwarzanie danych\GitHub\repo_2024_2025\R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9541EF-DA16-46F2-A407-79F6F080474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601BBC4F-1DC4-4975-AE6E-05A352954F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58A9408-BF10-4D65-BB37-DC495B436BF0}"/>
   </bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486B72D3-6D6D-47D4-B22D-F4B2760A6776}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,10 +499,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1173,62 +1173,170 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5897</v>
+      </c>
+      <c r="C30" s="3">
+        <v>14041</v>
+      </c>
+      <c r="D30" s="2">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1354</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2938</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12354</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21607</v>
+      </c>
+      <c r="D31" s="2">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1874</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3424</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9813</v>
+      </c>
+      <c r="C32" s="3">
+        <v>15118</v>
+      </c>
+      <c r="D32" s="2">
+        <v>97</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1652</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B33" s="2">
+        <v>11259</v>
+      </c>
+      <c r="C33" s="3">
+        <v>16593</v>
+      </c>
+      <c r="D33" s="2">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1987</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8747</v>
+      </c>
+      <c r="C34" s="3">
+        <v>13398</v>
+      </c>
+      <c r="D34" s="2">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3">
+        <v>39</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1765</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5487</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12959</v>
+      </c>
+      <c r="D35" s="2">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1365</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10879</v>
+      </c>
+      <c r="C36" s="3">
+        <v>22626</v>
+      </c>
+      <c r="D36" s="2">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1876</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45630</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
@@ -1236,7 +1344,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
@@ -1244,7 +1352,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
@@ -1252,7 +1360,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
@@ -1260,7 +1368,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
@@ -1268,7 +1376,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
@@ -1276,7 +1384,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
@@ -1284,7 +1392,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2"/>
@@ -1292,7 +1400,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
@@ -1300,7 +1408,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
@@ -1308,7 +1416,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
@@ -1316,7 +1424,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="2"/>

--- a/R/Data/Analiza.xlsx
+++ b/R/Data/Analiza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkisi\OneDrive - University of Gdansk (for Students)\GFZG\SEM I\Przetwarzanie danych\GitHub\repo_2024_2025\R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601BBC4F-1DC4-4975-AE6E-05A352954F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30170A0-4834-46C0-8B10-85EF6CBBBC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58A9408-BF10-4D65-BB37-DC495B436BF0}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>ilosc_krokow_12</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   <si>
     <t>spalone_kalorie_end</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,12 +95,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -141,17 +135,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486B72D3-6D6D-47D4-B22D-F4B2760A6776}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,26 +499,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,228 +1330,794 @@
       <c r="A37" s="1">
         <v>45630</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="B37" s="2">
+        <v>12874</v>
+      </c>
+      <c r="C37" s="3">
+        <v>22728</v>
+      </c>
+      <c r="D37" s="2">
+        <v>87</v>
+      </c>
+      <c r="E37" s="3">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1914</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3649</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="A38" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4987</v>
+      </c>
+      <c r="C38" s="3">
+        <v>13570</v>
+      </c>
+      <c r="D38" s="2">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3">
+        <v>88</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1247</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2916</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1541</v>
+      </c>
+      <c r="C39" s="3">
+        <v>13250</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3">
+        <v>77</v>
+      </c>
+      <c r="F39" s="2">
+        <v>845</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3126</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
+      <c r="A40" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10741</v>
+      </c>
+      <c r="C40" s="3">
+        <v>15301</v>
+      </c>
+      <c r="D40" s="2">
+        <v>85</v>
+      </c>
+      <c r="E40" s="3">
+        <v>34</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1871</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3397</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="A41" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B41" s="2">
+        <v>12047</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20926</v>
+      </c>
+      <c r="D41" s="2">
+        <v>97</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2065</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3578</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="A42" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3487</v>
+      </c>
+      <c r="C42" s="3">
+        <v>14877</v>
+      </c>
+      <c r="D42" s="2">
+        <v>76</v>
+      </c>
+      <c r="E42" s="3">
+        <v>71</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1247</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2900</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="A43" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9138</v>
+      </c>
+      <c r="C43" s="3">
+        <v>24189</v>
+      </c>
+      <c r="D43" s="2">
+        <v>86</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1496</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3545</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3478</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10735</v>
+      </c>
+      <c r="D44" s="2">
+        <v>89</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1024</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2651</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12364</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20946</v>
+      </c>
+      <c r="D45" s="2">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3">
+        <v>74</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1897</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3404</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="A46" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5687</v>
+      </c>
+      <c r="C46" s="3">
+        <v>16572</v>
+      </c>
+      <c r="D46" s="2">
+        <v>95</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1478</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3217</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9587</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12635</v>
+      </c>
+      <c r="D47" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="3">
+        <v>56</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1823</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3128</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
+      <c r="A48" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11547</v>
+      </c>
+      <c r="C48" s="3">
+        <v>18420</v>
+      </c>
+      <c r="D48" s="2">
+        <v>69</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1911</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6589</v>
+      </c>
+      <c r="C49" s="3">
+        <v>17785</v>
+      </c>
+      <c r="D49" s="2">
+        <v>74</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1687</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B50" s="2">
+        <v>12578</v>
+      </c>
+      <c r="C50" s="3">
+        <v>26736</v>
+      </c>
+      <c r="D50" s="2">
+        <v>82</v>
+      </c>
+      <c r="E50" s="3">
+        <v>47</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1836</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B51" s="2">
+        <v>11014</v>
+      </c>
+      <c r="C51" s="3">
+        <v>22372</v>
+      </c>
+      <c r="D51" s="2">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3">
+        <v>67</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1801</v>
+      </c>
+      <c r="G51" s="3">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B52" s="2">
+        <v>13547</v>
+      </c>
+      <c r="C52" s="3">
+        <v>28452</v>
+      </c>
+      <c r="D52" s="2">
+        <v>85</v>
+      </c>
+      <c r="E52" s="3">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1878</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8454</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20707</v>
+      </c>
+      <c r="D53" s="2">
+        <v>65</v>
+      </c>
+      <c r="E53" s="3">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1264</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B54" s="2">
+        <v>13201</v>
+      </c>
+      <c r="C54" s="3">
+        <v>25869</v>
+      </c>
+      <c r="D54" s="2">
+        <v>90</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1846</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12304</v>
+      </c>
+      <c r="C55" s="3">
+        <v>19711</v>
+      </c>
+      <c r="D55" s="2">
+        <v>37</v>
+      </c>
+      <c r="E55" s="3">
+        <v>91</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1788</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4796</v>
+      </c>
+      <c r="C56" s="3">
+        <v>12905</v>
+      </c>
+      <c r="D56" s="2">
+        <v>84</v>
+      </c>
+      <c r="E56" s="3">
+        <v>36</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1032</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10578</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20746</v>
+      </c>
+      <c r="D57" s="2">
+        <v>64</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1625</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10987</v>
+      </c>
+      <c r="C58" s="3">
+        <v>17476</v>
+      </c>
+      <c r="D58" s="2">
+        <v>92</v>
+      </c>
+      <c r="E58" s="3">
+        <v>37</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1687</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B59" s="2">
+        <v>11154</v>
+      </c>
+      <c r="C59" s="3">
+        <v>20995</v>
+      </c>
+      <c r="D59" s="2">
+        <v>87</v>
+      </c>
+      <c r="E59" s="3">
+        <v>88</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1802</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3398</v>
+      </c>
+      <c r="C60" s="3">
+        <v>12719</v>
+      </c>
+      <c r="D60" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="3">
+        <v>71</v>
+      </c>
+      <c r="F60" s="2">
+        <v>987</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B61" s="2">
+        <v>11478</v>
+      </c>
+      <c r="C61" s="3">
+        <v>18887</v>
+      </c>
+      <c r="D61" s="2">
+        <v>67</v>
+      </c>
+      <c r="E61" s="3">
+        <v>31</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1798</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B62" s="2">
+        <v>13257</v>
+      </c>
+      <c r="C62" s="3">
+        <v>21140</v>
+      </c>
+      <c r="D62" s="2">
+        <v>95</v>
+      </c>
+      <c r="E62" s="3">
+        <v>28</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1920</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4816</v>
+      </c>
+      <c r="C63" s="3">
+        <v>11364</v>
+      </c>
+      <c r="D63" s="2">
+        <v>88</v>
+      </c>
+      <c r="E63" s="3">
+        <v>34</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1135</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B64" s="7">
+        <v>12547</v>
+      </c>
+      <c r="C64" s="6">
+        <v>24032</v>
+      </c>
+      <c r="D64" s="7">
+        <v>72</v>
+      </c>
+      <c r="E64" s="6">
+        <v>38</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1874</v>
+      </c>
+      <c r="G64" s="6">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B65" s="2">
+        <v>13698</v>
+      </c>
+      <c r="C65" s="3">
+        <v>26133</v>
+      </c>
+      <c r="D65" s="2">
+        <v>65</v>
+      </c>
+      <c r="E65" s="3">
+        <v>87</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1965</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B66" s="2">
+        <v>9965</v>
+      </c>
+      <c r="C66" s="3">
+        <v>16175</v>
+      </c>
+      <c r="D66" s="2">
+        <v>82</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1763</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3587</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10979</v>
+      </c>
+      <c r="D67" s="2">
+        <v>84</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1095</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B68" s="2">
+        <v>11574</v>
+      </c>
+      <c r="C68" s="3">
+        <v>20758</v>
+      </c>
+      <c r="D68" s="2">
+        <v>92</v>
+      </c>
+      <c r="E68" s="3">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1856</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B69" s="2">
+        <v>15364</v>
+      </c>
+      <c r="C69" s="3">
+        <v>22396</v>
+      </c>
+      <c r="D69" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="3">
+        <v>30</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G69" s="3">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B70" s="2">
+        <v>11783</v>
+      </c>
+      <c r="C70" s="3">
+        <v>16828</v>
+      </c>
+      <c r="D70" s="2">
+        <v>63</v>
+      </c>
+      <c r="E70" s="3">
+        <v>21</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1863</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/Data/Analiza.xlsx
+++ b/R/Data/Analiza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkisi\OneDrive - University of Gdansk (for Students)\GFZG\SEM I\Przetwarzanie danych\GitHub\repo_2024_2025\R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30170A0-4834-46C0-8B10-85EF6CBBBC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C94EB5C-F242-456F-B58D-980151C3844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58A9408-BF10-4D65-BB37-DC495B436BF0}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486B72D3-6D6D-47D4-B22D-F4B2760A6776}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,12 +2112,194 @@
       <c r="A71" s="1">
         <v>45664</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
+      <c r="B71" s="2">
+        <v>6478</v>
+      </c>
+      <c r="C71" s="3">
+        <v>19212</v>
+      </c>
+      <c r="D71" s="2">
+        <v>75</v>
+      </c>
+      <c r="E71" s="3">
+        <v>16</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1258</v>
+      </c>
+      <c r="G71" s="3">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B72" s="2">
+        <v>12014</v>
+      </c>
+      <c r="C72" s="3">
+        <v>20978</v>
+      </c>
+      <c r="D72" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="3">
+        <v>69</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1854</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B73" s="2">
+        <v>14876</v>
+      </c>
+      <c r="C73" s="3">
+        <v>31553</v>
+      </c>
+      <c r="D73" s="2">
+        <v>47</v>
+      </c>
+      <c r="E73" s="3">
+        <v>63</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1968</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6874</v>
+      </c>
+      <c r="C74" s="3">
+        <v>28430</v>
+      </c>
+      <c r="D74" s="2">
+        <v>89</v>
+      </c>
+      <c r="E74" s="3">
+        <v>44</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1357</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10745</v>
+      </c>
+      <c r="C75" s="3">
+        <v>16187</v>
+      </c>
+      <c r="D75" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="3">
+        <v>23</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1732</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B76" s="2">
+        <v>15784</v>
+      </c>
+      <c r="C76" s="3">
+        <v>18116</v>
+      </c>
+      <c r="D76" s="2">
+        <v>62</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2324</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5789</v>
+      </c>
+      <c r="C77" s="3">
+        <v>14012</v>
+      </c>
+      <c r="D77" s="2">
+        <v>78</v>
+      </c>
+      <c r="E77" s="3">
+        <v>32</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1301</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B78" s="2">
+        <v>11745</v>
+      </c>
+      <c r="C78" s="3">
+        <v>22062</v>
+      </c>
+      <c r="D78" s="2">
+        <v>55</v>
+      </c>
+      <c r="E78" s="3">
+        <v>27</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1823</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/Data/Analiza.xlsx
+++ b/R/Data/Analiza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkisi\OneDrive - University of Gdansk (for Students)\GFZG\SEM I\Przetwarzanie danych\GitHub\repo_2024_2025\R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C94EB5C-F242-456F-B58D-980151C3844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A6A4A5-AC66-4865-8492-362B28AE10BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B58A9408-BF10-4D65-BB37-DC495B436BF0}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486B72D3-6D6D-47D4-B22D-F4B2760A6776}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2293,13 +2293,174 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
+      <c r="A79" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B79" s="2">
+        <v>12687</v>
+      </c>
+      <c r="C79" s="3">
+        <v>22485</v>
+      </c>
+      <c r="D79" s="2">
+        <v>84</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1921</v>
+      </c>
+      <c r="G79" s="3">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B80" s="2">
+        <v>9475</v>
+      </c>
+      <c r="C80" s="3">
+        <v>29677</v>
+      </c>
+      <c r="D80" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="3">
+        <v>23</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1452</v>
+      </c>
+      <c r="G80" s="3">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4761</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10798</v>
+      </c>
+      <c r="D81" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="3">
+        <v>27</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1174</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12471</v>
+      </c>
+      <c r="C82" s="3">
+        <v>15662</v>
+      </c>
+      <c r="D82" s="2">
+        <v>56</v>
+      </c>
+      <c r="E82" s="3">
+        <v>29</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1821</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B83" s="2">
+        <v>18746</v>
+      </c>
+      <c r="C83" s="3">
+        <v>23239</v>
+      </c>
+      <c r="D83" s="2">
+        <v>48</v>
+      </c>
+      <c r="E83" s="3">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2450</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4781</v>
+      </c>
+      <c r="C84" s="3">
+        <v>10628</v>
+      </c>
+      <c r="D84" s="2">
+        <v>68</v>
+      </c>
+      <c r="E84" s="3">
+        <v>51</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1204</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11247</v>
+      </c>
+      <c r="C85" s="3">
+        <v>17683</v>
+      </c>
+      <c r="D85" s="2">
+        <v>74</v>
+      </c>
+      <c r="E85" s="3">
+        <v>36</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1941</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
